--- a/biology/Botanique/Chatus/Chatus.xlsx
+++ b/biology/Botanique/Chatus/Chatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chatus N[N 1] est un ancien cépage noir de cuve caractéristique des Cévennes (Ardèche).
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était déjà connu par Olivier de Serres qui le cite nommément sous le terme chatus dans son ouvrage Le théâtre d'agriculture et mesnage des champs, édité en mars 1600.
 </t>
@@ -543,9 +557,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est aussi appelé chatelus, houron à Saint-Péray, charos dans l'Ardèche, corbel dans la Drôme, corbesse dans l'Isère et Negro en Italie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est aussi appelé chatelus, houron à Saint-Péray, charos dans l'Ardèche, corbel dans la Drôme, corbesse dans l'Isère et Negro en Italie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cépage a été redécouvert dans la région de Joyeuse en Ardèche et sa production relancée dans les années 1980 par la cave de Rosières en Ardèche. Il a été inséré au classement officiel de la Communauté Européenne le 31/12/1991[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage a été redécouvert dans la région de Joyeuse en Ardèche et sa production relancée dans les années 1980 par la cave de Rosières en Ardèche. Il a été inséré au classement officiel de la Communauté Européenne le 31/12/1991.
 </t>
         </is>
       </c>
